--- a/Tutorials/Tut11 matrix.xlsx
+++ b/Tutorials/Tut11 matrix.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\1_CBI 310\2017\Tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willienicol/Documents/GitHub/Biochemical-engineering-notes/Tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8AAE35-FBE3-1A47-ADFF-87FB592B7C7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>4(ATP)</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,140 +347,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
       <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-0.2</v>
+      </c>
+      <c r="B2">
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>-0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>-0.2</v>
-      </c>
-      <c r="F2">
-        <v>0.4</v>
-      </c>
-      <c r="G2">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
+        <v>-0.6</v>
+      </c>
+      <c r="D3">
+        <v>-0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
+      </c>
+      <c r="F3">
+        <v>0.75</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.33</v>
+      </c>
+      <c r="B4">
+        <v>-0.34650000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-0.33</v>
+      </c>
+      <c r="E4">
+        <v>-7.3333333333333334E-2</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>-0.6</v>
-      </c>
-      <c r="E3">
-        <v>-0.5</v>
-      </c>
-      <c r="F3">
-        <v>0.6</v>
-      </c>
-      <c r="G3">
-        <v>0.75</v>
-      </c>
-      <c r="H3">
-        <v>0.6</v>
+      <c r="G4">
+        <v>-0.44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.33</v>
-      </c>
-      <c r="C4">
-        <v>-0.34650000000000003</v>
-      </c>
-      <c r="D4">
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="E4">
-        <v>-0.33</v>
-      </c>
-      <c r="F4">
-        <v>-7.3333333333333334E-2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>-3.0349999999999997</v>
       </c>
       <c r="C5">
-        <v>-3.0349999999999997</v>
+        <v>-3.3333333333333326E-2</v>
       </c>
       <c r="D5">
-        <v>-3.3333333333333326E-2</v>
+        <v>-1.1333333333333333</v>
       </c>
       <c r="E5">
-        <v>-1.1333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H5">
         <v>3</v>
       </c>
     </row>
